--- a/QUIZ.xlsx
+++ b/QUIZ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rittu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9DF06B-B4D0-4858-AA5E-EAA9CB441284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{426DA1D9-1E0B-4A84-AAE9-2C77F1A6DC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{DC723CE5-CF57-4CEB-84C1-14213E8F626D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{DC723CE5-CF57-4CEB-84C1-14213E8F626D}"/>
   </bookViews>
   <sheets>
     <sheet name="economics" sheetId="1" r:id="rId1"/>
@@ -15948,8 +15948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F72ED78-D127-454D-9DDA-C10A831C9393}">
   <dimension ref="A1:G182"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15962,7 +15962,7 @@
     <col min="7" max="7" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1276</v>
       </c>
@@ -15970,13 +15970,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1277</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1278</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1279</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
@@ -20157,7 +20157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82932FF-B939-4CEB-BC0B-CF79AF9F7991}">
   <dimension ref="A1:F179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+    <sheetView topLeftCell="A177" workbookViewId="0">
       <selection activeCell="F179" sqref="F179"/>
     </sheetView>
   </sheetViews>
